--- a/project-evaluation.xlsx
+++ b/project-evaluation.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="104">
   <si>
     <t>TABLES</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>MatchDetails</t>
-  </si>
-  <si>
-    <t>Admins</t>
   </si>
   <si>
     <t xml:space="preserve">Live Match page control matches and since live match page in developer side, I needed </t>
@@ -919,7 +916,7 @@
   <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E15"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1040,13 +1037,13 @@
     </row>
     <row r="11" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B11" s="2"/>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
@@ -1079,14 +1076,9 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18" t="s">
-        <v>4</v>
-      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1139,9 +1131,6 @@
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1258,7 +1247,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
@@ -1806,7 +1795,7 @@
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
       <c r="D34" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
@@ -1823,7 +1812,7 @@
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
@@ -1853,7 +1842,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
@@ -1869,7 +1858,7 @@
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -2288,7 +2277,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="1"/>
@@ -3369,7 +3358,7 @@
         <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="9"/>
